--- a/reg/wages.xlsx
+++ b/reg/wages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">6.435***</t>
+    <t xml:space="preserve">6.798***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">5.501***</t>
+    <t xml:space="preserve">6.158***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.814)</t>
+    <t xml:space="preserve">(1.747)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
@@ -65,85 +65,97 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">8.265***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.879***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.279)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.581)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.661)</t>
+    <t xml:space="preserve">6.584***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.841***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.261)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.545)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.520)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.087***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.422)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.440)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.595)</t>
+    <t xml:space="preserve">-0.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.902***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.406)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.601)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.361)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.107***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.253)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.471)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.219)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.295)</t>
+    <t xml:space="preserve">0.797*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.042***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.310)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.509)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.800*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.094)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.069)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -158,22 +170,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562</t>
+    <t xml:space="preserve">0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.017</t>
+    <t xml:space="preserve">0.212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171</t>
   </si>
 </sst>
 </file>
@@ -703,13 +718,13 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -717,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -740,76 +755,76 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -818,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/reg/wages.xlsx
+++ b/reg/wages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">6.798***</t>
+    <t xml:space="preserve">8.779***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">6.158***</t>
+    <t xml:space="preserve">11.183***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.747)</t>
+    <t xml:space="preserve">(1.951)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
@@ -65,97 +65,190 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">6.584***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.841***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.261)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.545)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.520)</t>
+    <t xml:space="preserve">5.306***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.788***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.281)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.643)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.318)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.484)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.400)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.978*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.623***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.973**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.736)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.764)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.902***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.406)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.601)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.361)</t>
+    <t xml:space="preserve">-0.320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.481***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.469)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.193)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.490***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.043)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.113)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.042***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.310)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.509)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_MARKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.800*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.094)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.069)</t>
+    <t xml:space="preserve">0.847**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.326)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.605)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.292*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.466***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.234)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.106)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -164,31 +257,31 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">479</t>
+    <t xml:space="preserve">463</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631</t>
+    <t xml:space="preserve">0.192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171</t>
+    <t xml:space="preserve">0.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237</t>
   </si>
 </sst>
 </file>
@@ -775,45 +868,45 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>55</v>
@@ -821,25 +914,209 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
       <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
